--- a/Results/VICINITY Core Ontology/Validated CQs/Validated_P1_GPT3_VICINITYCore.xlsx
+++ b/Results/VICINITY Core Ontology/Validated CQs/Validated_P1_GPT3_VICINITYCore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Results\VICINITY Core Ontology\Validated CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\VICINITY Core Ontology\Validated CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900D782-6E6A-4158-A91D-1C10E8ABC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE3106-D9DF-4469-9956-E20FD7DFCD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="278">
   <si>
     <t>What are the benefits of using virtual entities in IoT applications</t>
   </si>
@@ -328,9 +328,6 @@
     <t xml:space="preserve"> Can a partnership be terminated by either organization</t>
   </si>
   <si>
-    <t>If so, how</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Are there any specific requirements or criteria that must be met for a partnership to be considered valid</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Can a partnership involve more than two organizations</t>
-  </si>
-  <si>
-    <t>If not, why not</t>
   </si>
   <si>
     <t xml:space="preserve"> What types of organizations are most likely to enter into a partnership</t>
@@ -1224,15 +1218,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274:XFD274"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1670,6 +1664,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
@@ -1747,887 +1746,887 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
